--- a/src/test/java/TestData/TestData.xlsx
+++ b/src/test/java/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\PageObjectModelBasics\ProjectUI\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1724728-F66D-4A66-8650-B992C48C209A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96F3311-C0EB-48AE-AAA6-3E296805DE94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36327315-3C2E-4E60-B5F8-D91EC9FD6D2D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>Customer_Name</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>u011@abc.com</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>u14@abc.com</t>
   </si>
 </sst>
 </file>
@@ -616,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3714A9AF-8D34-4AF4-B9EF-FBC86FFD6655}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,6 +756,35 @@
       </c>
       <c r="I4" s="3" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
